--- a/data/Regning av kaloriforbruk.xlsx
+++ b/data/Regning av kaloriforbruk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/Master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/Master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E78053-3173-4A89-AB2A-C6B2B3FB39BE}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C9156D-3421-4924-BCB9-C7167F257AF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -255,6 +255,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +271,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +557,7 @@
     <col min="12" max="12" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,12 +613,12 @@
         <f>E2*4.939</f>
         <v>6.2067425200000006</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <f>H2*4.182</f>
         <v>25.956597218640006</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -640,12 +645,18 @@
         <f>E3*5.003</f>
         <v>6.7526491600000007</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I66" si="1">H3*4.182</f>
         <v>28.239578787120006</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" s="8">
+        <v>1256.68</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1324.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -672,12 +683,18 @@
         <f>E4*4.927</f>
         <v>5.8723927599999994</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>24.558346522320001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" s="8">
+        <v>1349.72</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1198.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -704,12 +721,18 @@
         <f>E5*4.927</f>
         <v>7.04521584</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>29.463092642880003</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" s="8">
+        <v>1191.8800000000001</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1095.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -736,12 +759,18 @@
         <f>E6*4.939</f>
         <v>6.5847606956521734</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>27.537469229217393</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6" s="8">
+        <v>1044.08</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1117.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -768,12 +797,18 @@
         <f>E7*5.014</f>
         <v>6.1339270400000006</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>25.652082881280005</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" s="8">
+        <v>1508.4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1503.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -800,12 +835,18 @@
         <f>E8*4.968</f>
         <v>11.914655040000001</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>49.827087377280009</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" s="8">
+        <v>1738.3157894736842</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1377.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -832,12 +873,18 @@
         <f>E9*5.003</f>
         <v>5.2235322399999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>21.844811827680001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9" s="8">
+        <v>1397.2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1592.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -864,12 +911,18 @@
         <f>E10*4.863</f>
         <v>7.2538453200000008</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>30.335581128240005</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10" s="8">
+        <v>1155.1600000000001</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1305.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -896,12 +949,18 @@
         <f>E11*4.904</f>
         <v>4.6168217600000006</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>19.307548600320004</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11" s="8">
+        <v>1149.92</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1314.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -928,12 +987,18 @@
         <f>E12*4.951</f>
         <v>6.0439827599999996</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>25.275935902320001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12" s="8">
+        <v>1242.6400000000001</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1175.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -960,12 +1025,18 @@
         <f>E13*4.939</f>
         <v>5.7956201600000004</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>24.237283509120005</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13" s="8">
+        <v>1135.28</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1145.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -992,12 +1063,12 @@
         <f>E14*5.055</f>
         <v>7.6249620000000009</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
         <v>31.887591084000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1024,12 +1095,12 @@
         <f>E15*5.003</f>
         <v>6.6505879599999993</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>27.812758848719998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1056,12 +1127,13 @@
         <f>E16*4.985</f>
         <v>7.8332296000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
         <v>32.758566187200003</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1088,12 +1160,12 @@
         <f>E17*4.98</f>
         <v>6.2977080000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
         <v>26.337014856000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1120,12 +1192,13 @@
         <f>E18*5.043</f>
         <v>5.6110435200000008</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <f t="shared" si="1"/>
         <v>23.465384000640007</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1151,11 +1224,11 @@
       <c r="H19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1182,12 +1255,12 @@
         <f>E20*4.881</f>
         <v>7.3027569600000009</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <f t="shared" si="1"/>
         <v>30.540129606720008</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1214,12 +1287,12 @@
         <f>E21*4.958</f>
         <v>5.5357061600000002</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <f t="shared" si="1"/>
         <v>23.150323161120003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1246,12 +1319,12 @@
         <f>E22*4.927</f>
         <v>6.8840043999999994</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <f t="shared" si="1"/>
         <v>28.788906400799998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1278,12 +1351,12 @@
         <f>E23*4.945</f>
         <v>7.7440677999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
         <v>32.385691539600003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1310,12 +1383,12 @@
         <f>E24*5.003</f>
         <v>5.3960356799999998</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <f t="shared" si="1"/>
         <v>22.566221213760002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1342,12 +1415,12 @@
         <f>E25*4.956</f>
         <v>8.559012000000001</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <f t="shared" si="1"/>
         <v>35.793788184000007</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1374,12 +1447,12 @@
         <f>E26*5.072</f>
         <v>6.9111071999999991</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <f t="shared" si="1"/>
         <v>28.902250310399999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1406,12 +1479,12 @@
         <f>E27*5.003</f>
         <v>5.4284551199999997</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <f t="shared" si="1"/>
         <v>22.701799311840002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1438,12 +1511,12 @@
         <f>E28*5.037</f>
         <v>5.8185409200000011</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <f t="shared" si="1"/>
         <v>24.333138127440005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1470,12 +1543,12 @@
         <f>E29*4.991</f>
         <v>6.9961841599999994</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <f t="shared" si="1"/>
         <v>29.258042157120002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1502,12 +1575,12 @@
         <f>E30*5.014</f>
         <v>9.0247821666666681</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <f t="shared" si="1"/>
         <v>37.741639021000012</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1534,12 +1607,12 @@
         <f>E31*4.899</f>
         <v>5.6334580800000005</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <f t="shared" si="1"/>
         <v>23.559121690560005</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1566,7 +1639,7 @@
         <f>E32*5.06</f>
         <v>6.2877584000000004</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <f t="shared" si="1"/>
         <v>26.295405628800005</v>
       </c>
@@ -1598,7 +1671,7 @@
         <f>E33*5.003</f>
         <v>5.3798259599999989</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <f t="shared" si="1"/>
         <v>22.498432164719997</v>
       </c>
@@ -1630,7 +1703,7 @@
         <f>E34*4.951</f>
         <v>6.1012163199999989</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <f t="shared" si="1"/>
         <v>25.515286650239997</v>
       </c>
@@ -1662,7 +1735,7 @@
         <f>E35*4.974</f>
         <v>7.5670456800000006</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <f t="shared" si="1"/>
         <v>31.645385033760004</v>
       </c>
@@ -1694,7 +1767,7 @@
         <f>E36*5.008</f>
         <v>5.6854822400000007</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <f t="shared" si="1"/>
         <v>23.776686727680005</v>
       </c>
@@ -1726,7 +1799,7 @@
         <f>E37*5.037</f>
         <v>4.7486821199999998</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <f t="shared" si="1"/>
         <v>19.858988625840002</v>
       </c>
@@ -1758,7 +1831,7 @@
         <f>E38*5.02</f>
         <v>5.5515176000000004</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <f t="shared" si="1"/>
         <v>23.216446603200005</v>
       </c>
@@ -1790,7 +1863,7 @@
         <f>E39*4.991</f>
         <v>5.9075472399999995</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <f t="shared" si="1"/>
         <v>24.705362557680001</v>
       </c>
@@ -1822,7 +1895,7 @@
         <f>E40*4.974</f>
         <v>6.5883614399999999</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <f t="shared" si="1"/>
         <v>27.552527542080004</v>
       </c>
@@ -1854,7 +1927,7 @@
         <f>E41*4.927</f>
         <v>5.9242248000000002</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <f t="shared" si="1"/>
         <v>24.775108113600002</v>
       </c>
@@ -1886,7 +1959,7 @@
         <f>E42*4.962</f>
         <v>5.9480486399999997</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <f t="shared" si="1"/>
         <v>24.87473941248</v>
       </c>
@@ -1918,7 +1991,7 @@
         <f>E43*4.962</f>
         <v>5.4359702399999996</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <f t="shared" si="1"/>
         <v>22.733227543680002</v>
       </c>
@@ -1950,7 +2023,7 @@
         <f>E44*5.014</f>
         <v>4.3206640800000002</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <f t="shared" si="1"/>
         <v>18.069017182560003</v>
       </c>
@@ -1982,7 +2055,7 @@
         <f>E45*5.037</f>
         <v>5.8112876400000006</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <f t="shared" si="1"/>
         <v>24.302804910480006</v>
       </c>
@@ -2014,7 +2087,7 @@
         <f>E46*4.991</f>
         <v>7.5423992000000002</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <f t="shared" si="1"/>
         <v>31.542313454400002</v>
       </c>
@@ -2046,7 +2119,7 @@
         <f>E47*5.055</f>
         <v>5.9183940000000002</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <f t="shared" si="1"/>
         <v>24.750723708000002</v>
       </c>
@@ -2078,7 +2151,7 @@
         <f>E48*4.974</f>
         <v>5.55814656</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <f t="shared" si="1"/>
         <v>23.244168913920003</v>
       </c>
@@ -2110,7 +2183,7 @@
         <f>E49*5.037</f>
         <v>6.5701368750000002</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <f t="shared" si="1"/>
         <v>27.476312411250003</v>
       </c>
@@ -2142,7 +2215,7 @@
         <f>E50*4.945</f>
         <v>6.1606100000000001</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <f t="shared" si="1"/>
         <v>25.763671020000004</v>
       </c>
@@ -2174,7 +2247,7 @@
         <f>E51*4.922</f>
         <v>5.3848730833333338</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <f t="shared" si="1"/>
         <v>22.519539234500005</v>
       </c>
@@ -2206,7 +2279,7 @@
         <f>E52*5.026</f>
         <v>7.5578977599999995</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <f t="shared" si="1"/>
         <v>31.60712843232</v>
       </c>
@@ -2238,7 +2311,7 @@
         <f>E53*4.985</f>
         <v>7.9355218000000018</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="4">
         <f t="shared" si="1"/>
         <v>33.186352167600013</v>
       </c>
@@ -2270,7 +2343,7 @@
         <f>E54*4.974</f>
         <v>7.2737786399999997</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <f t="shared" si="1"/>
         <v>30.418942272480002</v>
       </c>
@@ -2302,7 +2375,7 @@
         <f>E55*4.933</f>
         <v>6.4077696800000004</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="4">
         <f t="shared" si="1"/>
         <v>26.797292801760005</v>
       </c>
@@ -2334,7 +2407,7 @@
         <f>E56*5.02</f>
         <v>4.8220111999999995</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="4">
         <f t="shared" si="1"/>
         <v>20.165650838400001</v>
       </c>
@@ -2366,7 +2439,7 @@
         <f>E57*4.893</f>
         <v>6.7386396</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="4">
         <f t="shared" si="1"/>
         <v>28.180990807200004</v>
       </c>
@@ -2398,7 +2471,7 @@
         <f>E58*4.951</f>
         <v>7.8855567200000003</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <f t="shared" si="1"/>
         <v>32.977398203040003</v>
       </c>
@@ -2430,7 +2503,7 @@
         <f>E59*5.049</f>
         <v>7.8802772399999998</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="4">
         <f t="shared" si="1"/>
         <v>32.955319417680002</v>
       </c>
@@ -2462,7 +2535,7 @@
         <f>E60*5.003</f>
         <v>8.3654329166666663</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="4">
         <f t="shared" si="1"/>
         <v>34.9842404575</v>
       </c>
@@ -2494,7 +2567,7 @@
         <f>E61*4.933</f>
         <v>6.4423006799999998</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="4">
         <f t="shared" si="1"/>
         <v>26.941701443760003</v>
       </c>
@@ -2526,7 +2599,7 @@
         <f>E62*5.072</f>
         <v>6.2174604799999988</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <f t="shared" si="1"/>
         <v>26.001419727359998</v>
       </c>
@@ -2558,7 +2631,7 @@
         <f>E63*4.968</f>
         <v>5.6750457599999997</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="4">
         <f t="shared" si="1"/>
         <v>23.733041368320002</v>
       </c>
@@ -2588,7 +2661,7 @@
       <c r="H64" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2619,7 +2692,7 @@
         <f>E65*5.078</f>
         <v>6.6767575200000007</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="4">
         <f t="shared" si="1"/>
         <v>27.922199948640007</v>
       </c>
@@ -2651,7 +2724,7 @@
         <f>E66*5.089</f>
         <v>5.8543856000000005</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="4">
         <f t="shared" si="1"/>
         <v>24.483040579200004</v>
       </c>
@@ -2683,7 +2756,7 @@
         <f>E67*5.101</f>
         <v>5.9983679200000006</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <f t="shared" ref="I67:I70" si="3">H67*4.182</f>
         <v>25.085174641440005</v>
       </c>
@@ -2715,7 +2788,7 @@
         <f>E68*5.02</f>
         <v>6.5780071999999992</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <f t="shared" si="3"/>
         <v>27.5092261104</v>
       </c>
@@ -2747,7 +2820,7 @@
         <f>E69*4.945</f>
         <v>5.6647942000000002</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="4">
         <f t="shared" si="3"/>
         <v>23.690169344400005</v>
       </c>
@@ -2779,7 +2852,7 @@
         <f>E70*4.916</f>
         <v>4.5830884800000007</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="4">
         <f t="shared" si="3"/>
         <v>19.166476023360005</v>
       </c>

--- a/data/Regning av kaloriforbruk.xlsx
+++ b/data/Regning av kaloriforbruk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/Master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C9156D-3421-4924-BCB9-C7167F257AF9}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1ECAE7E-9CC9-4B70-97BD-697F1A65A400}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,10 +271,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,12 +645,8 @@
         <f t="shared" ref="I3:I66" si="1">H3*4.182</f>
         <v>28.239578787120006</v>
       </c>
-      <c r="K3" s="8">
-        <v>1256.68</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1324.56</v>
-      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -687,12 +679,8 @@
         <f t="shared" si="1"/>
         <v>24.558346522320001</v>
       </c>
-      <c r="K4" s="8">
-        <v>1349.72</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1198.72</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -725,12 +713,8 @@
         <f t="shared" si="1"/>
         <v>29.463092642880003</v>
       </c>
-      <c r="K5" s="8">
-        <v>1191.8800000000001</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1095.52</v>
-      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -763,12 +747,8 @@
         <f t="shared" si="1"/>
         <v>27.537469229217393</v>
       </c>
-      <c r="K6" s="8">
-        <v>1044.08</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1117.44</v>
-      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -801,12 +781,8 @@
         <f t="shared" si="1"/>
         <v>25.652082881280005</v>
       </c>
-      <c r="K7" s="8">
-        <v>1508.4</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1503.76</v>
-      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -839,12 +815,8 @@
         <f t="shared" si="1"/>
         <v>49.827087377280009</v>
       </c>
-      <c r="K8" s="8">
-        <v>1738.3157894736842</v>
-      </c>
-      <c r="L8" s="8">
-        <v>1377.2</v>
-      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -877,12 +849,8 @@
         <f t="shared" si="1"/>
         <v>21.844811827680001</v>
       </c>
-      <c r="K9" s="8">
-        <v>1397.2</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1592.72</v>
-      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -915,12 +883,8 @@
         <f t="shared" si="1"/>
         <v>30.335581128240005</v>
       </c>
-      <c r="K10" s="8">
-        <v>1155.1600000000001</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1305.96</v>
-      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -953,12 +917,8 @@
         <f t="shared" si="1"/>
         <v>19.307548600320004</v>
       </c>
-      <c r="K11" s="8">
-        <v>1149.92</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1314.84</v>
-      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -991,12 +951,8 @@
         <f t="shared" si="1"/>
         <v>25.275935902320001</v>
       </c>
-      <c r="K12" s="8">
-        <v>1242.6400000000001</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1175.92</v>
-      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1029,12 +985,8 @@
         <f t="shared" si="1"/>
         <v>24.237283509120005</v>
       </c>
-      <c r="K13" s="8">
-        <v>1135.28</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1145.56</v>
-      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">

--- a/data/Regning av kaloriforbruk.xlsx
+++ b/data/Regning av kaloriforbruk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c3fb2a472a4d152/Skrivebord/R/Master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1ECAE7E-9CC9-4B70-97BD-697F1A65A400}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="11_F25DC773A252ABDACC1048E1A95861305ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F790A31-7B96-4D3A-816C-986215CAB90E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -195,14 +195,21 @@
   </si>
   <si>
     <t>kj_min</t>
+  </si>
+  <si>
+    <t>prosent_vo2maks</t>
+  </si>
+  <si>
+    <t>prosent_hfmaks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -240,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,6 +263,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,24 +547,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21" customWidth="1"/>
-    <col min="10" max="11" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21" customWidth="1"/>
+    <col min="12" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,25 +578,31 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,29 +612,35 @@
       <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
+        <v>75.89473684210526</v>
+      </c>
+      <c r="E2" s="9">
+        <v>48.04128703408729</v>
+      </c>
+      <c r="F2" s="4">
         <v>1256.68</v>
       </c>
-      <c r="E2" s="4">
-        <f>D2/1000</f>
+      <c r="G2" s="4">
+        <f>F2/1000</f>
         <v>1.25668</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="4">
         <v>979.28</v>
       </c>
-      <c r="G2" s="6">
+      <c r="I2" s="6">
         <v>0.78120000000000001</v>
       </c>
-      <c r="H2" s="6">
-        <f>E2*4.939</f>
+      <c r="J2" s="6">
+        <f>G2*4.939</f>
         <v>6.2067425200000006</v>
       </c>
-      <c r="I2" s="4">
-        <f>H2*4.182</f>
+      <c r="K2" s="4">
+        <f>J2*4.182</f>
         <v>25.956597218640006</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -624,31 +650,37 @@
       <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
+        <v>68.98989898989899</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44.017393194912493</v>
+      </c>
+      <c r="F3" s="4">
         <v>1349.72</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E66" si="0">D3/1000</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G66" si="0">F3/1000</f>
         <v>1.34972</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>1128.56</v>
       </c>
-      <c r="G3" s="6">
+      <c r="I3" s="6">
         <v>0.8368000000000001</v>
       </c>
-      <c r="H3" s="6">
-        <f>E3*5.003</f>
+      <c r="J3" s="6">
+        <f>G3*5.003</f>
         <v>6.7526491600000007</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="1">H3*4.182</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K66" si="1">J3*4.182</f>
         <v>28.239578787120006</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -658,31 +690,37 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
+        <v>65.889570552147248</v>
+      </c>
+      <c r="E4" s="9">
+        <v>62.244581773870664</v>
+      </c>
+      <c r="F4" s="4">
         <v>1191.8800000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>1.1918800000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>918.52</v>
       </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <v>0.77159999999999984</v>
       </c>
-      <c r="H4" s="6">
-        <f>E4*4.927</f>
+      <c r="J4" s="6">
+        <f>G4*4.927</f>
         <v>5.8723927599999994</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="1"/>
         <v>24.558346522320001</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -692,31 +730,37 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
+        <v>77.668711656441715</v>
+      </c>
+      <c r="E5" s="9">
+        <v>70.180122699386501</v>
+      </c>
+      <c r="F5" s="4">
         <v>1429.92</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>1.4299200000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>1100.24</v>
       </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>0.76919999999999988</v>
       </c>
-      <c r="H5" s="6">
-        <f>E5*4.927</f>
+      <c r="J5" s="6">
+        <f>G5*4.927</f>
         <v>7.04521584</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
         <v>29.463092642880003</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -726,31 +770,37 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="E6" s="9">
+        <v>42.667507722562867</v>
+      </c>
+      <c r="F6" s="4">
         <v>1333.2173913043478</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>1.3332173913043477</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>1036.8695652173913</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>0.77739130434782588</v>
       </c>
-      <c r="H6" s="6">
-        <f>E6*4.939</f>
+      <c r="J6" s="6">
+        <f>G6*4.939</f>
         <v>6.5847606956521734</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
         <v>27.537469229217393</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -760,31 +810,37 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
+        <v>60.115606936416185</v>
+      </c>
+      <c r="E7" s="9">
+        <v>48.469096671949288</v>
+      </c>
+      <c r="F7" s="4">
         <v>1223.3599999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>1.22336</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <v>1031.5999999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="I7" s="6">
         <v>0.84600000000000009</v>
       </c>
-      <c r="H7" s="6">
-        <f>E7*5.014</f>
+      <c r="J7" s="6">
+        <f>G7*5.014</f>
         <v>6.1339270400000006</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
         <v>25.652082881280005</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -794,31 +850,37 @@
       <c r="C8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
+        <v>64.343434343434353</v>
+      </c>
+      <c r="E8" s="9">
+        <v>63.834974713867453</v>
+      </c>
+      <c r="F8" s="4">
         <v>2398.2800000000002</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>2.3982800000000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <v>1928.2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="I8" s="6">
         <v>0.80279999999999985</v>
       </c>
-      <c r="H8" s="6">
-        <f>E8*4.968</f>
+      <c r="J8" s="6">
+        <f>G8*4.968</f>
         <v>11.914655040000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
         <v>49.827087377280009</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -828,31 +890,37 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
+        <v>72.388059701492537</v>
+      </c>
+      <c r="E9" s="9">
+        <v>62.51352160463027</v>
+      </c>
+      <c r="F9" s="4">
         <v>1044.08</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>1.0440799999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <v>870.48</v>
       </c>
-      <c r="G9" s="6">
+      <c r="I9" s="6">
         <v>0.83440000000000003</v>
       </c>
-      <c r="H9" s="6">
-        <f>E9*5.003</f>
+      <c r="J9" s="6">
+        <f>G9*5.003</f>
         <v>5.2235322399999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="1"/>
         <v>21.844811827680001</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -862,31 +930,37 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
+        <v>64.21052631578948</v>
+      </c>
+      <c r="E10" s="9">
+        <v>62.437840100460448</v>
+      </c>
+      <c r="F10" s="4">
         <v>1491.64</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>1.4916400000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
         <v>1066.8399999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="I10" s="6">
         <v>0.71560000000000012</v>
       </c>
-      <c r="H10" s="6">
-        <f>E10*4.863</f>
+      <c r="J10" s="6">
+        <f>G10*4.863</f>
         <v>7.2538453200000008</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
         <v>30.335581128240005</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -896,31 +970,37 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
+        <v>78.043478260869563</v>
+      </c>
+      <c r="E11" s="9">
+        <v>53.904380188949332</v>
+      </c>
+      <c r="F11" s="4">
         <v>941.44</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>0.94144000000000005</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>705.84</v>
       </c>
-      <c r="G11" s="6">
+      <c r="I11" s="6">
         <v>0.74959999999999993</v>
       </c>
-      <c r="H11" s="6">
-        <f>E11*4.904</f>
+      <c r="J11" s="6">
+        <f>G11*4.904</f>
         <v>4.6168217600000006</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <f t="shared" si="1"/>
         <v>19.307548600320004</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -930,31 +1010,37 @@
       <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
+        <v>56.195652173913047</v>
+      </c>
+      <c r="E12" s="9">
+        <v>49.490270270270273</v>
+      </c>
+      <c r="F12" s="4">
         <v>1220.76</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>1.2207600000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H12" s="4">
         <v>962.72</v>
       </c>
-      <c r="G12" s="6">
+      <c r="I12" s="6">
         <v>0.78959999999999975</v>
       </c>
-      <c r="H12" s="6">
-        <f>E12*4.951</f>
+      <c r="J12" s="6">
+        <f>G12*4.951</f>
         <v>6.0439827599999996</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
         <v>25.275935902320001</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -964,31 +1050,37 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
+        <v>70.573248407643305</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43.823229179634012</v>
+      </c>
+      <c r="F13" s="4">
         <v>1173.44</v>
       </c>
-      <c r="E13" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>1.17344</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>915.84</v>
       </c>
-      <c r="G13" s="6">
+      <c r="I13" s="6">
         <v>0.7799999999999998</v>
       </c>
-      <c r="H13" s="6">
-        <f>E13*4.939</f>
+      <c r="J13" s="6">
+        <f>G13*4.939</f>
         <v>5.7956201600000004</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="1"/>
         <v>24.237283509120005</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -998,29 +1090,35 @@
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
+        <v>68.063872255489017</v>
+      </c>
+      <c r="E14" s="9">
+        <v>57.67157331294208</v>
+      </c>
+      <c r="F14" s="4">
         <v>1508.4</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>1.5084000000000002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="H14" s="4">
         <v>1323</v>
       </c>
-      <c r="G14" s="6">
+      <c r="I14" s="6">
         <v>0.87760000000000005</v>
       </c>
-      <c r="H14" s="6">
-        <f>E14*5.055</f>
+      <c r="J14" s="6">
+        <f>G14*5.055</f>
         <v>7.6249620000000009</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <f t="shared" si="1"/>
         <v>31.887591084000007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1030,29 +1128,35 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="9">
+        <v>84.065040650406502</v>
+      </c>
+      <c r="E15" s="9">
+        <v>64.099654424174219</v>
+      </c>
+      <c r="F15" s="4">
         <v>1329.32</v>
       </c>
-      <c r="E15" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>1.3293199999999998</v>
       </c>
-      <c r="F15" s="4">
+      <c r="H15" s="4">
         <v>1111.2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="I15" s="6">
         <v>0.83600000000000008</v>
       </c>
-      <c r="H15" s="6">
-        <f>E15*5.003</f>
+      <c r="J15" s="6">
+        <f>G15*5.003</f>
         <v>6.6505879599999993</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <f t="shared" si="1"/>
         <v>27.812758848719998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1062,30 +1166,36 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
+        <v>60.457142857142856</v>
+      </c>
+      <c r="E16" s="9">
+        <v>48.832858548712899</v>
+      </c>
+      <c r="F16" s="4">
         <v>1571.36</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>1.5713599999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="H16" s="4">
         <v>1284.8</v>
       </c>
-      <c r="G16" s="6">
+      <c r="I16" s="6">
         <v>0.81760000000000033</v>
       </c>
-      <c r="H16" s="6">
-        <f>E16*4.985</f>
+      <c r="J16" s="6">
+        <f>G16*4.985</f>
         <v>7.8332296000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <f t="shared" si="1"/>
         <v>32.758566187200003</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1095,29 +1205,35 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
+        <v>64.020100502512562</v>
+      </c>
+      <c r="E17" s="9">
+        <v>48.616646376625873</v>
+      </c>
+      <c r="F17" s="4">
         <v>1264.5999999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>1.2645999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="H17" s="4">
         <v>1030.1199999999999</v>
       </c>
-      <c r="G17" s="6">
+      <c r="I17" s="6">
         <v>0.81640000000000013</v>
       </c>
-      <c r="H17" s="6">
-        <f>E17*4.98</f>
+      <c r="J17" s="6">
+        <f>G17*4.98</f>
         <v>6.2977080000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <f t="shared" si="1"/>
         <v>26.337014856000003</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1127,30 +1243,36 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
+        <v>60.229885057471265</v>
+      </c>
+      <c r="E18" s="9">
+        <v>41.883681535855452</v>
+      </c>
+      <c r="F18" s="4">
         <v>1112.6400000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>1.1126400000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="H18" s="4">
         <v>965.8</v>
       </c>
-      <c r="G18" s="6">
+      <c r="I18" s="6">
         <v>0.86879999999999991</v>
       </c>
-      <c r="H18" s="6">
-        <f>E18*5.043</f>
+      <c r="J18" s="6">
+        <f>G18*5.043</f>
         <v>5.6110435200000008</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <f t="shared" si="1"/>
         <v>23.465384000640007</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1160,27 +1282,33 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
+        <v>99.056603773584911</v>
+      </c>
+      <c r="E19" s="9">
+        <v>93.550046971406445</v>
+      </c>
+      <c r="F19" s="4">
         <v>1738.3157894736842</v>
       </c>
-      <c r="E19" s="4">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>1.7383157894736843</v>
       </c>
-      <c r="F19" s="4">
+      <c r="H19" s="4">
         <v>1918.0526315789473</v>
       </c>
-      <c r="G19" s="6">
+      <c r="I19" s="6">
         <v>1.1063157894736844</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1190,29 +1318,35 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="E20" s="9">
+        <v>55.71944634100926</v>
+      </c>
+      <c r="F20" s="4">
         <v>1496.16</v>
       </c>
-      <c r="E20" s="4">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>1.4961600000000002</v>
       </c>
-      <c r="F20" s="4">
+      <c r="H20" s="4">
         <v>1095.56</v>
       </c>
-      <c r="G20" s="6">
+      <c r="I20" s="6">
         <v>0.73159999999999992</v>
       </c>
-      <c r="H20" s="6">
-        <f>E20*4.881</f>
+      <c r="J20" s="6">
+        <f>G20*4.881</f>
         <v>7.3027569600000009</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <f t="shared" si="1"/>
         <v>30.540129606720008</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1222,29 +1356,35 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
+        <v>61.445783132530117</v>
+      </c>
+      <c r="E21" s="9">
+        <v>50.441382426022145</v>
+      </c>
+      <c r="F21" s="4">
         <v>1116.52</v>
       </c>
-      <c r="E21" s="4">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>1.11652</v>
       </c>
-      <c r="F21" s="4">
+      <c r="H21" s="4">
         <v>913.2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="I21" s="6">
         <v>0.81880000000000008</v>
       </c>
-      <c r="H21" s="6">
-        <f>E21*4.958</f>
+      <c r="J21" s="6">
+        <f>G21*4.958</f>
         <v>5.5357061600000002</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="1"/>
         <v>23.150323161120003</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1254,29 +1394,35 @@
       <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
+        <v>65.972222222222214</v>
+      </c>
+      <c r="E22" s="9">
+        <v>51.253018677589942</v>
+      </c>
+      <c r="F22" s="4">
         <v>1397.2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>1.3972</v>
       </c>
-      <c r="F22" s="4">
+      <c r="H22" s="4">
         <v>1073.52</v>
       </c>
-      <c r="G22" s="6">
+      <c r="I22" s="6">
         <v>0.76880000000000015</v>
       </c>
-      <c r="H22" s="6">
-        <f>E22*4.927</f>
+      <c r="J22" s="6">
+        <f>G22*4.927</f>
         <v>6.8840043999999994</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <f t="shared" si="1"/>
         <v>28.788906400799998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1286,29 +1432,35 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
+        <v>59.15789473684211</v>
+      </c>
+      <c r="E23" s="9">
+        <v>34.11975743491049</v>
+      </c>
+      <c r="F23" s="4">
         <v>1566.04</v>
       </c>
-      <c r="E23" s="4">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>1.5660399999999999</v>
       </c>
-      <c r="F23" s="4">
+      <c r="H23" s="4">
         <v>1228.76</v>
       </c>
-      <c r="G23" s="6">
+      <c r="I23" s="6">
         <v>0.78599999999999992</v>
       </c>
-      <c r="H23" s="6">
-        <f>E23*4.945</f>
+      <c r="J23" s="6">
+        <f>G23*4.945</f>
         <v>7.7440677999999998</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
         <v>32.385691539600003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1318,29 +1470,35 @@
       <c r="C24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
+        <v>65.813953488372093</v>
+      </c>
+      <c r="E24" s="9">
+        <v>51.841384282624368</v>
+      </c>
+      <c r="F24" s="4">
         <v>1078.56</v>
       </c>
-      <c r="E24" s="4">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>1.07856</v>
       </c>
-      <c r="F24" s="4">
+      <c r="H24" s="4">
         <v>902.64</v>
       </c>
-      <c r="G24" s="6">
+      <c r="I24" s="6">
         <v>0.8368000000000001</v>
       </c>
-      <c r="H24" s="6">
-        <f>E24*5.003</f>
+      <c r="J24" s="6">
+        <f>G24*5.003</f>
         <v>5.3960356799999998</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <f t="shared" si="1"/>
         <v>22.566221213760002</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1350,29 +1508,35 @@
       <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="9">
+        <v>65.306122448979593</v>
+      </c>
+      <c r="E25" s="9">
+        <v>58.502710027100271</v>
+      </c>
+      <c r="F25" s="4">
         <v>1727</v>
       </c>
-      <c r="E25" s="4">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>1.7270000000000001</v>
       </c>
-      <c r="F25" s="4">
+      <c r="H25" s="4">
         <v>1377.4</v>
       </c>
-      <c r="G25" s="6">
+      <c r="I25" s="6">
         <v>0.7971999999999998</v>
       </c>
-      <c r="H25" s="6">
-        <f>E25*4.956</f>
+      <c r="J25" s="6">
+        <f>G25*4.956</f>
         <v>8.559012000000001</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <f t="shared" si="1"/>
         <v>35.793788184000007</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1382,29 +1546,35 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="9">
+        <v>57.8</v>
+      </c>
+      <c r="E26" s="9">
+        <v>44.151860452557109</v>
+      </c>
+      <c r="F26" s="4">
         <v>1362.6</v>
       </c>
-      <c r="E26" s="4">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>1.3625999999999998</v>
       </c>
-      <c r="F26" s="4">
+      <c r="H26" s="4">
         <v>1215.44</v>
       </c>
-      <c r="G26" s="6">
+      <c r="I26" s="6">
         <v>0.89439999999999997</v>
       </c>
-      <c r="H26" s="6">
-        <f>E26*5.072</f>
+      <c r="J26" s="6">
+        <f>G26*5.072</f>
         <v>6.9111071999999991</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <f t="shared" si="1"/>
         <v>28.902250310399999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1414,29 +1584,35 @@
       <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="9">
+        <v>78.35294117647058</v>
+      </c>
+      <c r="E27" s="9">
+        <v>55.129477517147926</v>
+      </c>
+      <c r="F27" s="4">
         <v>1085.04</v>
       </c>
-      <c r="E27" s="4">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>1.08504</v>
       </c>
-      <c r="F27" s="4">
+      <c r="H27" s="4">
         <v>903.76</v>
       </c>
-      <c r="G27" s="6">
+      <c r="I27" s="6">
         <v>0.83279999999999987</v>
       </c>
-      <c r="H27" s="6">
-        <f>E27*5.003</f>
+      <c r="J27" s="6">
+        <f>G27*5.003</f>
         <v>5.4284551199999997</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <f t="shared" si="1"/>
         <v>22.701799311840002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1446,29 +1622,35 @@
       <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="9">
+        <v>52.960893854748605</v>
+      </c>
+      <c r="E28" s="9">
+        <v>34.169591796489847</v>
+      </c>
+      <c r="F28" s="4">
         <v>1155.1600000000001</v>
       </c>
-      <c r="E28" s="4">
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>1.1551600000000002</v>
       </c>
-      <c r="F28" s="4">
+      <c r="H28" s="4">
         <v>1000.2</v>
       </c>
-      <c r="G28" s="6">
+      <c r="I28" s="6">
         <v>0.8655999999999997</v>
       </c>
-      <c r="H28" s="6">
-        <f>E28*5.037</f>
+      <c r="J28" s="6">
+        <f>G28*5.037</f>
         <v>5.8185409200000011</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <f t="shared" si="1"/>
         <v>24.333138127440005</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1478,29 +1660,35 @@
       <c r="C29" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="9">
+        <v>62.010582010582013</v>
+      </c>
+      <c r="E29" s="9">
+        <v>49.291214909453203</v>
+      </c>
+      <c r="F29" s="4">
         <v>1401.76</v>
       </c>
-      <c r="E29" s="4">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>1.4017599999999999</v>
       </c>
-      <c r="F29" s="4">
+      <c r="H29" s="4">
         <v>1153.68</v>
       </c>
-      <c r="G29" s="6">
+      <c r="I29" s="6">
         <v>0.8248000000000002</v>
       </c>
-      <c r="H29" s="6">
-        <f>E29*4.991</f>
+      <c r="J29" s="6">
+        <f>G29*4.991</f>
         <v>6.9961841599999994</v>
       </c>
-      <c r="I29" s="4">
+      <c r="K29" s="4">
         <f t="shared" si="1"/>
         <v>29.258042157120002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1510,29 +1698,35 @@
       <c r="C30" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="9">
+        <v>70.219780219780219</v>
+      </c>
+      <c r="E30" s="9">
+        <v>44.458853073154671</v>
+      </c>
+      <c r="F30" s="4">
         <v>1799.9166666666667</v>
       </c>
-      <c r="E30" s="4">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>1.7999166666666668</v>
       </c>
-      <c r="F30" s="4">
+      <c r="H30" s="4">
         <v>1517.25</v>
       </c>
-      <c r="G30" s="6">
+      <c r="I30" s="6">
         <v>0.84458333333333335</v>
       </c>
-      <c r="H30" s="6">
-        <f>E30*5.014</f>
+      <c r="J30" s="6">
+        <f>G30*5.014</f>
         <v>9.0247821666666681</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <f t="shared" si="1"/>
         <v>37.741639021000012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1542,29 +1736,35 @@
       <c r="C31" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="9">
+        <v>67.331288343558285</v>
+      </c>
+      <c r="E31" s="9">
+        <v>54.33120718166785</v>
+      </c>
+      <c r="F31" s="4">
         <v>1149.92</v>
       </c>
-      <c r="E31" s="4">
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>1.1499200000000001</v>
       </c>
-      <c r="F31" s="4">
+      <c r="H31" s="4">
         <v>856.72</v>
       </c>
-      <c r="G31" s="6">
+      <c r="I31" s="6">
         <v>0.74560000000000004</v>
       </c>
-      <c r="H31" s="6">
-        <f>E31*4.899</f>
+      <c r="J31" s="6">
+        <f>G31*4.899</f>
         <v>5.6334580800000005</v>
       </c>
-      <c r="I31" s="4">
+      <c r="K31" s="4">
         <f t="shared" si="1"/>
         <v>23.559121690560005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1574,29 +1774,35 @@
       <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="9">
+        <v>69.340659340659343</v>
+      </c>
+      <c r="E32" s="9">
+        <v>67.510322346975741</v>
+      </c>
+      <c r="F32" s="4">
         <v>1242.6400000000001</v>
       </c>
-      <c r="E32" s="4">
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>1.2426400000000002</v>
       </c>
-      <c r="F32" s="4">
+      <c r="H32" s="4">
         <v>1098.28</v>
       </c>
-      <c r="G32" s="6">
+      <c r="I32" s="6">
         <v>0.88519999999999999</v>
       </c>
-      <c r="H32" s="6">
-        <f>E32*5.06</f>
+      <c r="J32" s="6">
+        <f>G32*5.06</f>
         <v>6.2877584000000004</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <f t="shared" si="1"/>
         <v>26.295405628800005</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1606,29 +1812,35 @@
       <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="9">
+        <v>65.268817204301072</v>
+      </c>
+      <c r="E33" s="9">
+        <v>48.525270758122744</v>
+      </c>
+      <c r="F33" s="4">
         <v>1075.32</v>
       </c>
-      <c r="E33" s="4">
+      <c r="G33" s="4">
         <f t="shared" si="0"/>
         <v>1.0753199999999998</v>
       </c>
-      <c r="F33" s="4">
+      <c r="H33" s="4">
         <v>896.52</v>
       </c>
-      <c r="G33" s="6">
+      <c r="I33" s="6">
         <v>0.83480000000000021</v>
       </c>
-      <c r="H33" s="6">
-        <f>E33*5.003</f>
+      <c r="J33" s="6">
+        <f>G33*5.003</f>
         <v>5.3798259599999989</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <f t="shared" si="1"/>
         <v>22.498432164719997</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1638,29 +1850,35 @@
       <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="9">
+        <v>53.298429319371735</v>
+      </c>
+      <c r="E34" s="9">
+        <v>38.695415532761146</v>
+      </c>
+      <c r="F34" s="4">
         <v>1232.32</v>
       </c>
-      <c r="E34" s="4">
+      <c r="G34" s="4">
         <f t="shared" si="0"/>
         <v>1.2323199999999999</v>
       </c>
-      <c r="F34" s="4">
+      <c r="H34" s="4">
         <v>975.4</v>
       </c>
-      <c r="G34" s="6">
+      <c r="I34" s="6">
         <v>0.79239999999999977</v>
       </c>
-      <c r="H34" s="6">
-        <f>E34*4.951</f>
+      <c r="J34" s="6">
+        <f>G34*4.951</f>
         <v>6.1012163199999989</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <f t="shared" si="1"/>
         <v>25.515286650239997</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1670,29 +1888,35 @@
       <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="9">
+        <v>52.112676056338024</v>
+      </c>
+      <c r="E35" s="9">
+        <v>66.690436180317093</v>
+      </c>
+      <c r="F35" s="4">
         <v>1521.32</v>
       </c>
-      <c r="E35" s="4">
+      <c r="G35" s="4">
         <f t="shared" si="0"/>
         <v>1.52132</v>
       </c>
-      <c r="F35" s="4">
+      <c r="H35" s="4">
         <v>1232.48</v>
       </c>
-      <c r="G35" s="6">
+      <c r="I35" s="6">
         <v>0.80959999999999976</v>
       </c>
-      <c r="H35" s="6">
-        <f>E35*4.974</f>
+      <c r="J35" s="6">
+        <f>G35*4.974</f>
         <v>7.5670456800000006</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <f t="shared" si="1"/>
         <v>31.645385033760004</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1702,29 +1926,35 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="9">
+        <v>64.914285714285711</v>
+      </c>
+      <c r="E36" s="9">
+        <v>43.748747591522161</v>
+      </c>
+      <c r="F36" s="4">
         <v>1135.28</v>
       </c>
-      <c r="E36" s="4">
+      <c r="G36" s="4">
         <f t="shared" si="0"/>
         <v>1.1352800000000001</v>
       </c>
-      <c r="F36" s="4">
+      <c r="H36" s="4">
         <v>950.12</v>
       </c>
-      <c r="G36" s="6">
+      <c r="I36" s="6">
         <v>0.8380000000000003</v>
       </c>
-      <c r="H36" s="6">
-        <f>E36*5.008</f>
+      <c r="J36" s="6">
+        <f>G36*5.008</f>
         <v>5.6854822400000007</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <f t="shared" si="1"/>
         <v>23.776686727680005</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -1734,29 +1964,35 @@
       <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="9">
+        <v>61.183431952662723</v>
+      </c>
+      <c r="E37" s="9">
+        <v>40.770938446014128</v>
+      </c>
+      <c r="F37" s="4">
         <v>942.76</v>
       </c>
-      <c r="E37" s="4">
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>0.94276000000000004</v>
       </c>
-      <c r="F37" s="4">
+      <c r="H37" s="4">
         <v>817.08</v>
       </c>
-      <c r="G37" s="6">
+      <c r="I37" s="6">
         <v>0.86519999999999953</v>
       </c>
-      <c r="H37" s="6">
-        <f>E37*5.037</f>
+      <c r="J37" s="6">
+        <f>G37*5.037</f>
         <v>4.7486821199999998</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <f t="shared" si="1"/>
         <v>19.858988625840002</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1766,29 +2002,35 @@
       <c r="C38" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="9">
+        <v>48.554216867469876</v>
+      </c>
+      <c r="E38" s="9">
+        <v>49.329269199316037</v>
+      </c>
+      <c r="F38" s="4">
         <v>1105.8800000000001</v>
       </c>
-      <c r="E38" s="4">
+      <c r="G38" s="4">
         <f t="shared" si="0"/>
         <v>1.1058800000000002</v>
       </c>
-      <c r="F38" s="4">
+      <c r="H38" s="4">
         <v>936.48</v>
       </c>
-      <c r="G38" s="6">
+      <c r="I38" s="6">
         <v>0.84760000000000002</v>
       </c>
-      <c r="H38" s="6">
-        <f>E38*5.02</f>
+      <c r="J38" s="6">
+        <f>G38*5.02</f>
         <v>5.5515176000000004</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <f t="shared" si="1"/>
         <v>23.216446603200005</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1798,29 +2040,35 @@
       <c r="C39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="9">
+        <v>57.396449704142015</v>
+      </c>
+      <c r="E39" s="9">
+        <v>47.326669332267095</v>
+      </c>
+      <c r="F39" s="4">
         <v>1183.6400000000001</v>
       </c>
-      <c r="E39" s="4">
+      <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>1.18364</v>
       </c>
-      <c r="F39" s="4">
+      <c r="H39" s="4">
         <v>974.28</v>
       </c>
-      <c r="G39" s="6">
+      <c r="I39" s="6">
         <v>0.82440000000000013</v>
       </c>
-      <c r="H39" s="6">
-        <f>E39*4.991</f>
+      <c r="J39" s="6">
+        <f>G39*4.991</f>
         <v>5.9075472399999995</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <f t="shared" si="1"/>
         <v>24.705362557680001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
@@ -1830,29 +2078,35 @@
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="9">
+        <v>71.612903225806448</v>
+      </c>
+      <c r="E40" s="9">
+        <v>45.065834987241281</v>
+      </c>
+      <c r="F40" s="4">
         <v>1324.56</v>
       </c>
-      <c r="E40" s="4">
+      <c r="G40" s="4">
         <f t="shared" si="0"/>
         <v>1.32456</v>
       </c>
-      <c r="F40" s="4">
+      <c r="H40" s="4">
         <v>1075.52</v>
       </c>
-      <c r="G40" s="6">
+      <c r="I40" s="6">
         <v>0.81120000000000003</v>
       </c>
-      <c r="H40" s="6">
-        <f>E40*4.974</f>
+      <c r="J40" s="6">
+        <f>G40*4.974</f>
         <v>6.5883614399999999</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>27.552527542080004</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
@@ -1862,29 +2116,35 @@
       <c r="C41" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="9">
+        <v>61.566265060240966</v>
+      </c>
+      <c r="E41" s="9">
+        <v>45.808622769699667</v>
+      </c>
+      <c r="F41" s="4">
         <v>1202.4000000000001</v>
       </c>
-      <c r="E41" s="4">
+      <c r="G41" s="4">
         <f t="shared" si="0"/>
         <v>1.2024000000000001</v>
       </c>
-      <c r="F41" s="4">
+      <c r="H41" s="4">
         <v>924.44</v>
       </c>
-      <c r="G41" s="6">
+      <c r="I41" s="6">
         <v>0.76960000000000006</v>
       </c>
-      <c r="H41" s="6">
-        <f>E41*4.927</f>
+      <c r="J41" s="6">
+        <f>G41*4.927</f>
         <v>5.9242248000000002</v>
       </c>
-      <c r="I41" s="4">
+      <c r="K41" s="4">
         <f t="shared" si="1"/>
         <v>24.775108113600002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -1894,29 +2154,35 @@
       <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="9">
+        <v>62.755102040816325</v>
+      </c>
+      <c r="E42" s="9">
+        <v>37.382120582120585</v>
+      </c>
+      <c r="F42" s="4">
         <v>1198.72</v>
       </c>
-      <c r="E42" s="4">
+      <c r="G42" s="4">
         <f t="shared" si="0"/>
         <v>1.19872</v>
       </c>
-      <c r="F42" s="4">
+      <c r="H42" s="4">
         <v>957.76</v>
       </c>
-      <c r="G42" s="6">
+      <c r="I42" s="6">
         <v>0.80039999999999989</v>
       </c>
-      <c r="H42" s="6">
-        <f>E42*4.962</f>
+      <c r="J42" s="6">
+        <f>G42*4.962</f>
         <v>5.9480486399999997</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <f t="shared" si="1"/>
         <v>24.87473941248</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -1926,29 +2192,35 @@
       <c r="C43" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="9">
+        <v>64.512195121951223</v>
+      </c>
+      <c r="E43" s="9">
+        <v>52.919410675468967</v>
+      </c>
+      <c r="F43" s="4">
         <v>1095.52</v>
       </c>
-      <c r="E43" s="4">
+      <c r="G43" s="4">
         <f t="shared" si="0"/>
         <v>1.09552</v>
       </c>
-      <c r="F43" s="4">
+      <c r="H43" s="4">
         <v>876.36</v>
       </c>
-      <c r="G43" s="6">
+      <c r="I43" s="6">
         <v>0.8</v>
       </c>
-      <c r="H43" s="6">
-        <f>E43*4.962</f>
+      <c r="J43" s="6">
+        <f>G43*4.962</f>
         <v>5.4359702399999996</v>
       </c>
-      <c r="I43" s="4">
+      <c r="K43" s="4">
         <f t="shared" si="1"/>
         <v>22.733227543680002</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1958,29 +2230,35 @@
       <c r="C44" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="9">
+        <v>65.729729729729726</v>
+      </c>
+      <c r="E44" s="9">
+        <v>49.99342486946432</v>
+      </c>
+      <c r="F44" s="4">
         <v>861.72</v>
       </c>
-      <c r="E44" s="4">
+      <c r="G44" s="4">
         <f t="shared" si="0"/>
         <v>0.86172000000000004</v>
       </c>
-      <c r="F44" s="4">
+      <c r="H44" s="4">
         <v>727.6</v>
       </c>
-      <c r="G44" s="6">
+      <c r="I44" s="6">
         <v>0.84440000000000015</v>
       </c>
-      <c r="H44" s="6">
-        <f>E44*5.014</f>
+      <c r="J44" s="6">
+        <f>G44*5.014</f>
         <v>4.3206640800000002</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <f t="shared" si="1"/>
         <v>18.069017182560003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -1990,29 +2268,35 @@
       <c r="C45" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="9">
+        <v>59.473684210526315</v>
+      </c>
+      <c r="E45" s="9">
+        <v>41.560518731988473</v>
+      </c>
+      <c r="F45" s="4">
         <v>1153.72</v>
       </c>
-      <c r="E45" s="4">
+      <c r="G45" s="4">
         <f t="shared" si="0"/>
         <v>1.1537200000000001</v>
       </c>
-      <c r="F45" s="4">
+      <c r="H45" s="4">
         <v>996.68</v>
       </c>
-      <c r="G45" s="6">
+      <c r="I45" s="6">
         <v>0.86480000000000024</v>
       </c>
-      <c r="H45" s="6">
-        <f>E45*5.037</f>
+      <c r="J45" s="6">
+        <f>G45*5.037</f>
         <v>5.8112876400000006</v>
       </c>
-      <c r="I45" s="4">
+      <c r="K45" s="4">
         <f t="shared" si="1"/>
         <v>24.302804910480006</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
@@ -2022,29 +2306,35 @@
       <c r="C46" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="9">
+        <v>86.935483870967744</v>
+      </c>
+      <c r="E46" s="9">
+        <v>69.062380988651086</v>
+      </c>
+      <c r="F46" s="4">
         <v>1511.2</v>
       </c>
-      <c r="E46" s="4">
+      <c r="G46" s="4">
         <f t="shared" si="0"/>
         <v>1.5112000000000001</v>
       </c>
-      <c r="F46" s="4">
+      <c r="H46" s="4">
         <v>1250.96</v>
       </c>
-      <c r="G46" s="6">
+      <c r="I46" s="6">
         <v>0.82640000000000002</v>
       </c>
-      <c r="H46" s="6">
-        <f>E46*4.991</f>
+      <c r="J46" s="6">
+        <f>G46*4.991</f>
         <v>7.5423992000000002</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <f t="shared" si="1"/>
         <v>31.542313454400002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -2054,29 +2344,35 @@
       <c r="C47" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="9">
+        <v>60.344827586206897</v>
+      </c>
+      <c r="E47" s="9">
+        <v>43.559248465306624</v>
+      </c>
+      <c r="F47" s="4">
         <v>1170.8</v>
       </c>
-      <c r="E47" s="4">
+      <c r="G47" s="4">
         <f t="shared" si="0"/>
         <v>1.1708000000000001</v>
       </c>
-      <c r="F47" s="4">
+      <c r="H47" s="4">
         <v>1026.8399999999999</v>
       </c>
-      <c r="G47" s="6">
+      <c r="I47" s="6">
         <v>0.8792000000000002</v>
       </c>
-      <c r="H47" s="6">
-        <f>E47*5.055</f>
+      <c r="J47" s="6">
+        <f>G47*5.055</f>
         <v>5.9183940000000002</v>
       </c>
-      <c r="I47" s="4">
+      <c r="K47" s="4">
         <f t="shared" si="1"/>
         <v>24.750723708000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2086,29 +2382,35 @@
       <c r="C48" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="9">
+        <v>72.083333333333329</v>
+      </c>
+      <c r="E48" s="9">
+        <v>60.023634735899734</v>
+      </c>
+      <c r="F48" s="4">
         <v>1117.44</v>
       </c>
-      <c r="E48" s="4">
+      <c r="G48" s="4">
         <f t="shared" si="0"/>
         <v>1.11744</v>
       </c>
-      <c r="F48" s="4">
+      <c r="H48" s="4">
         <v>906.72</v>
       </c>
-      <c r="G48" s="6">
+      <c r="I48" s="6">
         <v>0.81079999999999985</v>
       </c>
-      <c r="H48" s="6">
-        <f>E48*4.974</f>
+      <c r="J48" s="6">
+        <f>G48*4.974</f>
         <v>5.55814656</v>
       </c>
-      <c r="I48" s="4">
+      <c r="K48" s="4">
         <f t="shared" si="1"/>
         <v>23.244168913920003</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2118,29 +2420,35 @@
       <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="9">
+        <v>59.555555555555564</v>
+      </c>
+      <c r="E49" s="9">
+        <v>43.75628983562563</v>
+      </c>
+      <c r="F49" s="4">
         <v>1304.375</v>
       </c>
-      <c r="E49" s="4">
+      <c r="G49" s="4">
         <f t="shared" si="0"/>
         <v>1.3043750000000001</v>
       </c>
-      <c r="F49" s="4">
+      <c r="H49" s="4">
         <v>1128.25</v>
       </c>
-      <c r="G49" s="6">
+      <c r="I49" s="6">
         <v>0.86624999999999985</v>
       </c>
-      <c r="H49" s="6">
-        <f>E49*5.037</f>
+      <c r="J49" s="6">
+        <f>G49*5.037</f>
         <v>6.5701368750000002</v>
       </c>
-      <c r="I49" s="4">
+      <c r="K49" s="4">
         <f t="shared" si="1"/>
         <v>27.476312411250003</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
@@ -2150,29 +2458,35 @@
       <c r="C50" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="9">
+        <v>58.586956521739133</v>
+      </c>
+      <c r="E50" s="9">
+        <v>47.508303811739736</v>
+      </c>
+      <c r="F50" s="4">
         <v>1245.8260869565217</v>
       </c>
-      <c r="E50" s="4">
+      <c r="G50" s="4">
         <f t="shared" si="0"/>
         <v>1.2458260869565216</v>
       </c>
-      <c r="F50" s="4">
+      <c r="H50" s="4">
         <v>975.26086956521738</v>
       </c>
-      <c r="G50" s="6">
+      <c r="I50" s="6">
         <v>0.78304347826086929</v>
       </c>
-      <c r="H50" s="6">
-        <f>E50*4.945</f>
+      <c r="J50" s="6">
+        <f>G50*4.945</f>
         <v>6.1606100000000001</v>
       </c>
-      <c r="I50" s="4">
+      <c r="K50" s="4">
         <f t="shared" si="1"/>
         <v>25.763671020000004</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -2182,29 +2496,35 @@
       <c r="C51" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="9">
+        <v>63.27272727272728</v>
+      </c>
+      <c r="E51" s="9">
+        <v>39.493712772998016</v>
+      </c>
+      <c r="F51" s="4">
         <v>1094.0416666666667</v>
       </c>
-      <c r="E51" s="4">
+      <c r="G51" s="4">
         <f t="shared" si="0"/>
         <v>1.0940416666666668</v>
       </c>
-      <c r="F51" s="4">
+      <c r="H51" s="4">
         <v>834.625</v>
       </c>
-      <c r="G51" s="6">
+      <c r="I51" s="6">
         <v>0.76249999999999973</v>
       </c>
-      <c r="H51" s="6">
-        <f>E51*4.922</f>
+      <c r="J51" s="6">
+        <f>G51*4.922</f>
         <v>5.3848730833333338</v>
       </c>
-      <c r="I51" s="4">
+      <c r="K51" s="4">
         <f t="shared" si="1"/>
         <v>22.519539234500005</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
@@ -2214,29 +2534,35 @@
       <c r="C52" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="9">
+        <v>70.658682634730539</v>
+      </c>
+      <c r="E52" s="9">
+        <v>54.507098411164137</v>
+      </c>
+      <c r="F52" s="4">
         <v>1503.76</v>
       </c>
-      <c r="E52" s="4">
+      <c r="G52" s="4">
         <f t="shared" si="0"/>
         <v>1.50376</v>
       </c>
-      <c r="F52" s="4">
+      <c r="H52" s="4">
         <v>1286.8399999999999</v>
       </c>
-      <c r="G52" s="6">
+      <c r="I52" s="6">
         <v>0.85479999999999978</v>
       </c>
-      <c r="H52" s="6">
-        <f>E52*5.026</f>
+      <c r="J52" s="6">
+        <f>G52*5.026</f>
         <v>7.5578977599999995</v>
       </c>
-      <c r="I52" s="4">
+      <c r="K52" s="4">
         <f t="shared" si="1"/>
         <v>31.60712843232</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2246,29 +2572,35 @@
       <c r="C53" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="9">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="E53" s="9">
+        <v>48.38541033434651</v>
+      </c>
+      <c r="F53" s="4">
         <v>1591.88</v>
       </c>
-      <c r="E53" s="4">
+      <c r="G53" s="4">
         <f t="shared" si="0"/>
         <v>1.5918800000000002</v>
       </c>
-      <c r="F53" s="4">
+      <c r="H53" s="4">
         <v>1307.32</v>
       </c>
-      <c r="G53" s="6">
+      <c r="I53" s="6">
         <v>0.82120000000000015</v>
       </c>
-      <c r="H53" s="6">
-        <f>E53*4.985</f>
+      <c r="J53" s="6">
+        <f>G53*4.985</f>
         <v>7.9355218000000018</v>
       </c>
-      <c r="I53" s="4">
+      <c r="K53" s="4">
         <f t="shared" si="1"/>
         <v>33.186352167600013</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -2278,29 +2610,35 @@
       <c r="C54" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="9">
+        <v>67.021276595744681</v>
+      </c>
+      <c r="E54" s="9">
+        <v>58.529517710626365</v>
+      </c>
+      <c r="F54" s="4">
         <v>1462.36</v>
       </c>
-      <c r="E54" s="4">
+      <c r="G54" s="4">
         <f t="shared" si="0"/>
         <v>1.4623599999999999</v>
       </c>
-      <c r="F54" s="4">
+      <c r="H54" s="4">
         <v>1176.8399999999999</v>
       </c>
-      <c r="G54" s="6">
+      <c r="I54" s="6">
         <v>0.80840000000000023</v>
       </c>
-      <c r="H54" s="6">
-        <f>E54*4.974</f>
+      <c r="J54" s="6">
+        <f>G54*4.974</f>
         <v>7.2737786399999997</v>
       </c>
-      <c r="I54" s="4">
+      <c r="K54" s="4">
         <f t="shared" si="1"/>
         <v>30.418942272480002</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -2310,29 +2648,35 @@
       <c r="C55" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="9">
+        <v>72.024539877300626</v>
+      </c>
+      <c r="E55" s="9">
+        <v>48.228712871287129</v>
+      </c>
+      <c r="F55" s="4">
         <v>1298.96</v>
       </c>
-      <c r="E55" s="4">
+      <c r="G55" s="4">
         <f t="shared" si="0"/>
         <v>1.2989600000000001</v>
       </c>
-      <c r="F55" s="4">
+      <c r="H55" s="4">
         <v>1008.88</v>
       </c>
-      <c r="G55" s="6">
+      <c r="I55" s="6">
         <v>0.77719999999999989</v>
       </c>
-      <c r="H55" s="6">
-        <f>E55*4.933</f>
+      <c r="J55" s="6">
+        <f>G55*4.933</f>
         <v>6.4077696800000004</v>
       </c>
-      <c r="I55" s="4">
+      <c r="K55" s="4">
         <f t="shared" si="1"/>
         <v>26.797292801760005</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -2342,29 +2686,35 @@
       <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="9">
+        <v>56.896551724137936</v>
+      </c>
+      <c r="E56" s="9">
+        <v>37.329878878165687</v>
+      </c>
+      <c r="F56" s="4">
         <v>960.56</v>
       </c>
-      <c r="E56" s="4">
+      <c r="G56" s="4">
         <f t="shared" si="0"/>
         <v>0.96055999999999997</v>
       </c>
-      <c r="F56" s="4">
+      <c r="H56" s="4">
         <v>816.88</v>
       </c>
-      <c r="G56" s="6">
+      <c r="I56" s="6">
         <v>0.85040000000000004</v>
       </c>
-      <c r="H56" s="6">
-        <f>E56*5.02</f>
+      <c r="J56" s="6">
+        <f>G56*5.02</f>
         <v>4.8220111999999995</v>
       </c>
-      <c r="I56" s="4">
+      <c r="K56" s="4">
         <f t="shared" si="1"/>
         <v>20.165650838400001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -2374,29 +2724,35 @@
       <c r="C57" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="9">
+        <v>65.694444444444443</v>
+      </c>
+      <c r="E57" s="9">
+        <v>50.342390642134774</v>
+      </c>
+      <c r="F57" s="4">
         <v>1377.2</v>
       </c>
-      <c r="E57" s="4">
+      <c r="G57" s="4">
         <f t="shared" si="0"/>
         <v>1.3772</v>
       </c>
-      <c r="F57" s="4">
+      <c r="H57" s="4">
         <v>1020.64</v>
       </c>
-      <c r="G57" s="6">
+      <c r="I57" s="6">
         <v>0.74199999999999999</v>
       </c>
-      <c r="H57" s="6">
-        <f>E57*4.893</f>
+      <c r="J57" s="6">
+        <f>G57*4.893</f>
         <v>6.7386396</v>
       </c>
-      <c r="I57" s="4">
+      <c r="K57" s="4">
         <f t="shared" si="1"/>
         <v>28.180990807200004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
@@ -2406,29 +2762,35 @@
       <c r="C58" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="9">
+        <v>61.875</v>
+      </c>
+      <c r="E58" s="9">
+        <v>54.334318853763932</v>
+      </c>
+      <c r="F58" s="4">
         <v>1592.72</v>
       </c>
-      <c r="E58" s="4">
+      <c r="G58" s="4">
         <f t="shared" si="0"/>
         <v>1.5927200000000001</v>
       </c>
-      <c r="F58" s="4">
+      <c r="H58" s="4">
         <v>1258.04</v>
       </c>
-      <c r="G58" s="6">
+      <c r="I58" s="6">
         <v>0.79000000000000015</v>
       </c>
-      <c r="H58" s="6">
-        <f>E58*4.951</f>
+      <c r="J58" s="6">
+        <f>G58*4.951</f>
         <v>7.8855567200000003</v>
       </c>
-      <c r="I58" s="4">
+      <c r="K58" s="4">
         <f t="shared" si="1"/>
         <v>32.977398203040003</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>22</v>
       </c>
@@ -2438,29 +2800,35 @@
       <c r="C59" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="9">
+        <v>59.371727748691107</v>
+      </c>
+      <c r="E59" s="9">
+        <v>32.722622125934727</v>
+      </c>
+      <c r="F59" s="4">
         <v>1560.76</v>
       </c>
-      <c r="E59" s="4">
+      <c r="G59" s="4">
         <f t="shared" si="0"/>
         <v>1.5607599999999999</v>
       </c>
-      <c r="F59" s="4">
+      <c r="H59" s="4">
         <v>1359.6</v>
       </c>
-      <c r="G59" s="6">
+      <c r="I59" s="6">
         <v>0.87359999999999971</v>
       </c>
-      <c r="H59" s="6">
-        <f>E59*5.049</f>
+      <c r="J59" s="6">
+        <f>G59*5.049</f>
         <v>7.8802772399999998</v>
       </c>
-      <c r="I59" s="4">
+      <c r="K59" s="4">
         <f t="shared" si="1"/>
         <v>32.955319417680002</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>29</v>
       </c>
@@ -2470,29 +2838,35 @@
       <c r="C60" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="9">
+        <v>64.180790960451972</v>
+      </c>
+      <c r="E60" s="9">
+        <v>41.905100037592412</v>
+      </c>
+      <c r="F60" s="4">
         <v>1672.0833333333333</v>
       </c>
-      <c r="E60" s="4">
+      <c r="G60" s="4">
         <f t="shared" si="0"/>
         <v>1.6720833333333334</v>
       </c>
-      <c r="F60" s="4">
+      <c r="H60" s="4">
         <v>1396.25</v>
       </c>
-      <c r="G60" s="6">
+      <c r="I60" s="6">
         <v>0.83583333333333354</v>
       </c>
-      <c r="H60" s="6">
-        <f>E60*5.003</f>
+      <c r="J60" s="6">
+        <f>G60*5.003</f>
         <v>8.3654329166666663</v>
       </c>
-      <c r="I60" s="4">
+      <c r="K60" s="4">
         <f t="shared" si="1"/>
         <v>34.9842404575</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>27</v>
       </c>
@@ -2502,29 +2876,35 @@
       <c r="C61" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="9">
+        <v>47.977528089887642</v>
+      </c>
+      <c r="E61" s="9">
+        <v>36.187872350251702</v>
+      </c>
+      <c r="F61" s="4">
         <v>1305.96</v>
       </c>
-      <c r="E61" s="4">
+      <c r="G61" s="4">
         <f t="shared" si="0"/>
         <v>1.30596</v>
       </c>
-      <c r="F61" s="4">
+      <c r="H61" s="4">
         <v>1010.76</v>
       </c>
-      <c r="G61" s="6">
+      <c r="I61" s="6">
         <v>0.77439999999999987</v>
       </c>
-      <c r="H61" s="6">
-        <f>E61*4.933</f>
+      <c r="J61" s="6">
+        <f>G61*4.933</f>
         <v>6.4423006799999998</v>
       </c>
-      <c r="I61" s="4">
+      <c r="K61" s="4">
         <f t="shared" si="1"/>
         <v>26.941701443760003</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
@@ -2534,29 +2914,35 @@
       <c r="C62" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="9">
+        <v>55.956284153005463</v>
+      </c>
+      <c r="E62" s="9">
+        <v>39.208060131137053</v>
+      </c>
+      <c r="F62" s="4">
         <v>1225.8399999999999</v>
       </c>
-      <c r="E62" s="4">
+      <c r="G62" s="4">
         <f t="shared" si="0"/>
         <v>1.2258399999999998</v>
       </c>
-      <c r="F62" s="4">
+      <c r="H62" s="4">
         <v>1092.2</v>
       </c>
-      <c r="G62" s="6">
+      <c r="I62" s="6">
         <v>0.89280000000000015</v>
       </c>
-      <c r="H62" s="6">
-        <f>E62*5.072</f>
+      <c r="J62" s="6">
+        <f>G62*5.072</f>
         <v>6.2174604799999988</v>
       </c>
-      <c r="I62" s="4">
+      <c r="K62" s="4">
         <f t="shared" si="1"/>
         <v>26.001419727359998</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>32</v>
       </c>
@@ -2566,29 +2952,35 @@
       <c r="C63" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="9">
+        <v>67.444444444444457</v>
+      </c>
+      <c r="E63" s="9">
+        <v>47.46810720964055</v>
+      </c>
+      <c r="F63" s="4">
         <v>1142.32</v>
       </c>
-      <c r="E63" s="4">
+      <c r="G63" s="4">
         <f t="shared" si="0"/>
         <v>1.14232</v>
       </c>
-      <c r="F63" s="4">
+      <c r="H63" s="4">
         <v>920.28</v>
       </c>
-      <c r="G63" s="6">
+      <c r="I63" s="6">
         <v>0.8056000000000002</v>
       </c>
-      <c r="H63" s="6">
-        <f>E63*4.968</f>
+      <c r="J63" s="6">
+        <f>G63*4.968</f>
         <v>5.6750457599999997</v>
       </c>
-      <c r="I63" s="4">
+      <c r="K63" s="4">
         <f t="shared" si="1"/>
         <v>23.733041368320002</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
@@ -2598,26 +2990,35 @@
       <c r="C64" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D64" s="9">
+        <v>50.979677234201048</v>
+      </c>
+      <c r="E64" s="9">
+        <v>65.156556148169798</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1486.3296399999999</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4863296399999999</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1227.796576</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J64" s="6">
+        <f>G64*4.997</f>
+        <v>7.4271892110799991</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="1"/>
+        <v>31.06050528073656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>31</v>
       </c>
@@ -2627,29 +3028,35 @@
       <c r="C65" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="9">
+        <v>71.186440677966104</v>
+      </c>
+      <c r="E65" s="9">
+        <v>70.187188612099632</v>
+      </c>
+      <c r="F65" s="4">
         <v>1314.84</v>
       </c>
-      <c r="E65" s="4">
+      <c r="G65" s="4">
         <f t="shared" si="0"/>
         <v>1.31484</v>
       </c>
-      <c r="F65" s="4">
+      <c r="H65" s="4">
         <v>1184.72</v>
       </c>
-      <c r="G65" s="6">
+      <c r="I65" s="6">
         <v>0.90200000000000036</v>
       </c>
-      <c r="H65" s="6">
-        <f>E65*5.078</f>
+      <c r="J65" s="6">
+        <f>G65*5.078</f>
         <v>6.6767575200000007</v>
       </c>
-      <c r="I65" s="4">
+      <c r="K65" s="4">
         <f t="shared" si="1"/>
         <v>27.922199948640007</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>20</v>
       </c>
@@ -2659,29 +3066,35 @@
       <c r="C66" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="9">
+        <v>60.975609756097562</v>
+      </c>
+      <c r="E66" s="9">
+        <v>49.068031563233099</v>
+      </c>
+      <c r="F66" s="4">
         <v>1150.4000000000001</v>
       </c>
-      <c r="E66" s="4">
+      <c r="G66" s="4">
         <f t="shared" si="0"/>
         <v>1.1504000000000001</v>
       </c>
-      <c r="F66" s="4">
+      <c r="H66" s="4">
         <v>1043.96</v>
       </c>
-      <c r="G66" s="6">
+      <c r="I66" s="6">
         <v>0.90759999999999974</v>
       </c>
-      <c r="H66" s="6">
-        <f>E66*5.089</f>
+      <c r="J66" s="6">
+        <f>G66*5.089</f>
         <v>5.8543856000000005</v>
       </c>
-      <c r="I66" s="4">
+      <c r="K66" s="4">
         <f t="shared" si="1"/>
         <v>24.483040579200004</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>30</v>
       </c>
@@ -2691,29 +3104,35 @@
       <c r="C67" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="9">
+        <v>74.522292993630572</v>
+      </c>
+      <c r="E67" s="9">
+        <v>58.290812954395243</v>
+      </c>
+      <c r="F67" s="4">
         <v>1175.92</v>
       </c>
-      <c r="E67" s="4">
-        <f t="shared" ref="E67:E70" si="2">D67/1000</f>
+      <c r="G67" s="4">
+        <f t="shared" ref="G67:G77" si="2">F67/1000</f>
         <v>1.1759200000000001</v>
       </c>
-      <c r="F67" s="4">
+      <c r="H67" s="4">
         <v>1084.2</v>
       </c>
-      <c r="G67" s="6">
+      <c r="I67" s="6">
         <v>0.92240000000000011</v>
       </c>
-      <c r="H67" s="6">
-        <f>E67*5.101</f>
+      <c r="J67" s="6">
+        <f>G67*5.101</f>
         <v>5.9983679200000006</v>
       </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I70" si="3">H67*4.182</f>
+      <c r="K67" s="4">
+        <f t="shared" ref="K67:K77" si="3">J67*4.182</f>
         <v>25.085174641440005</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2723,29 +3142,35 @@
       <c r="C68" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="9">
+        <v>51.31428571428571</v>
+      </c>
+      <c r="E68" s="9">
+        <v>41.835577076571063</v>
+      </c>
+      <c r="F68" s="4">
         <v>1310.3599999999999</v>
       </c>
-      <c r="E68" s="4">
+      <c r="G68" s="4">
         <f t="shared" si="2"/>
         <v>1.31036</v>
       </c>
-      <c r="F68" s="4">
+      <c r="H68" s="4">
         <v>1110.1199999999999</v>
       </c>
-      <c r="G68" s="6">
+      <c r="I68" s="6">
         <v>0.8488</v>
       </c>
-      <c r="H68" s="6">
-        <f>E68*5.02</f>
+      <c r="J68" s="6">
+        <f>G68*5.02</f>
         <v>6.5780071999999992</v>
       </c>
-      <c r="I68" s="4">
+      <c r="K68" s="4">
         <f t="shared" si="3"/>
         <v>27.5092261104</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>35</v>
       </c>
@@ -2755,29 +3180,35 @@
       <c r="C69" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="9">
+        <v>72.290502793296099</v>
+      </c>
+      <c r="E69" s="9">
+        <v>47.04880553083715</v>
+      </c>
+      <c r="F69" s="4">
         <v>1145.56</v>
       </c>
-      <c r="E69" s="4">
+      <c r="G69" s="4">
         <f t="shared" si="2"/>
         <v>1.1455599999999999</v>
       </c>
-      <c r="F69" s="4">
+      <c r="H69" s="4">
         <v>898.84</v>
       </c>
-      <c r="G69" s="6">
+      <c r="I69" s="6">
         <v>0.78399999999999992</v>
       </c>
-      <c r="H69" s="6">
-        <f>E69*4.945</f>
+      <c r="J69" s="6">
+        <f>G69*4.945</f>
         <v>5.6647942000000002</v>
       </c>
-      <c r="I69" s="4">
+      <c r="K69" s="4">
         <f t="shared" si="3"/>
         <v>23.690169344400005</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>36</v>
       </c>
@@ -2787,27 +3218,300 @@
       <c r="C70" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="9">
+        <v>53.25153374233129</v>
+      </c>
+      <c r="E70" s="9">
+        <v>39.536895674300254</v>
+      </c>
+      <c r="F70" s="4">
         <v>932.28</v>
       </c>
-      <c r="E70" s="4">
+      <c r="G70" s="4">
         <f t="shared" si="2"/>
         <v>0.93228</v>
       </c>
-      <c r="F70" s="4">
+      <c r="H70" s="4">
         <v>706.28</v>
       </c>
-      <c r="G70" s="6">
+      <c r="I70" s="6">
         <v>0.75840000000000007</v>
       </c>
-      <c r="H70" s="6">
-        <f>E70*4.916</f>
+      <c r="J70" s="6">
+        <f>G70*4.916</f>
         <v>4.5830884800000007</v>
       </c>
-      <c r="I70" s="4">
+      <c r="K70" s="4">
         <f t="shared" si="3"/>
         <v>19.166476023360005</v>
       </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="9">
+        <v>75.980090662798787</v>
+      </c>
+      <c r="E71" s="9">
+        <v>66.893638904683527</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1397.0318400000001</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3970318400000001</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1096.059088</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0.79066068</v>
+      </c>
+      <c r="J71" s="12">
+        <f>G71*4.956</f>
+        <v>6.9236897990400008</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="3"/>
+        <v>28.954870739585285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="9">
+        <v>60.662389561165988</v>
+      </c>
+      <c r="E72" s="9">
+        <v>46.982943381986189</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1369.5195200000001</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3695195200000001</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1149.296016</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0.84781192000000005</v>
+      </c>
+      <c r="J72" s="6">
+        <f>G72*5.02</f>
+        <v>6.8749879904000002</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="3"/>
+        <v>28.751199775852804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="9">
+        <v>76.649444123892849</v>
+      </c>
+      <c r="E73" s="9">
+        <v>52.547804423661894</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1060.0840799999999</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0600840799999998</v>
+      </c>
+      <c r="H73" s="4">
+        <v>900.32571199999995</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0.85603512000000004</v>
+      </c>
+      <c r="J73" s="6">
+        <f>G73*5.026</f>
+        <v>5.3279825860799983</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="3"/>
+        <v>22.281623174986557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="9">
+        <v>62.944522584526631</v>
+      </c>
+      <c r="E74" s="9">
+        <v>60.84562955653513</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2343.1195600000001</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="2"/>
+        <v>2.3431195599999999</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1920.87284</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0.82519812000000003</v>
+      </c>
+      <c r="J74" s="6">
+        <f>G74*4.991</f>
+        <v>11.694509723959998</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="3"/>
+        <v>48.906439665600715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="9">
+        <v>96.902981586172558</v>
+      </c>
+      <c r="E75" s="9">
+        <v>89.169166722989004</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1698.3345263157853</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6983345263157852</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1910.7640315789499</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1.1371819999999957</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="9">
+        <v>64.383070689302428</v>
+      </c>
+      <c r="E76" s="9">
+        <v>49.413690189389278</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1053.7531199999999</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0537531199999999</v>
+      </c>
+      <c r="H76" s="4">
+        <v>899.209968</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0.86014672000000003</v>
+      </c>
+      <c r="J76" s="6">
+        <f>G76*5.032</f>
+        <v>5.3024856998399992</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="3"/>
+        <v>22.17499519673088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="9">
+        <v>47.498583676398383</v>
+      </c>
+      <c r="E77" s="9">
+        <v>47.019215617299366</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1080.4447600000001</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="2"/>
+        <v>1.08044476</v>
+      </c>
+      <c r="H77" s="4">
+        <v>932.92137600000001</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0.87124804</v>
+      </c>
+      <c r="J77" s="6">
+        <f>G77*5.043</f>
+        <v>5.4486829246799999</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="3"/>
+        <v>22.786391991011762</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
